--- a/app/Copy of Job Tracker 2025.xlsx
+++ b/app/Copy of Job Tracker 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0231ddf693430895/Desktop/DBC/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0033E772414F6A9C99BF32C5FAB319632251617B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_0033E772414F6A9C99BF32C5FAB319632251617B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04B6407F-4D91-4F77-8595-27FB7DA3AD28}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -1000,6 +1000,9 @@
       </rPr>
       <t>Nepz Natural Juice</t>
     </r>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1124,6 +1127,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1445,9 +1451,10 @@
     <col min="6" max="6" width="17.59765625" customWidth="1"/>
     <col min="7" max="7" width="12.19921875" customWidth="1"/>
     <col min="8" max="8" width="20.69921875" customWidth="1"/>
+    <col min="9" max="9" width="9.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1466,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1484,8 +1491,11 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.75" customHeight="1">
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1508,8 +1518,11 @@
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I3" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1532,8 +1545,11 @@
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I4" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1554,8 +1570,11 @@
       <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I5" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1578,8 +1597,11 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I6" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1602,8 +1624,11 @@
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I7" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1626,8 +1651,11 @@
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I8" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1650,8 +1678,11 @@
       <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I9" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1674,8 +1705,11 @@
       <c r="H10" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I10" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1698,8 +1732,11 @@
       <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I11" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1722,8 +1759,11 @@
       <c r="H12" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I12" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1746,8 +1786,11 @@
       <c r="H13" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I13" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1813,11 @@
       <c r="H14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I14" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -1794,8 +1840,11 @@
       <c r="H15" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I15" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1818,8 +1867,11 @@
       <c r="H16" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I16" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -1842,8 +1894,11 @@
       <c r="H17" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.75" customHeight="1">
+      <c r="I17" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1869,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.75" customHeight="1">
+    <row r="19" spans="1:9" ht="14.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -1894,8 +1949,11 @@
       <c r="H19" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I19" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1918,8 +1976,11 @@
       <c r="H20" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I20" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
@@ -1942,8 +2003,11 @@
       <c r="H21" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I21" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
@@ -1966,8 +2030,11 @@
       <c r="H22" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I22" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1990,8 +2057,11 @@
       <c r="H23" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I23" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -2014,8 +2084,11 @@
       <c r="H24" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I24" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -2038,8 +2111,11 @@
       <c r="H25" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I25" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -2062,8 +2138,11 @@
       <c r="H26" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I26" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.75" customHeight="1">
+    <row r="28" spans="1:9" ht="14.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -2110,8 +2189,11 @@
       <c r="H28" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I28" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.5" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
@@ -2134,8 +2216,11 @@
       <c r="H29" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I29" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
@@ -2158,8 +2243,11 @@
       <c r="H30" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.5" customHeight="1">
+      <c r="I30" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.5" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
@@ -2180,8 +2268,11 @@
       <c r="H31" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I31" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
@@ -2201,6 +2292,9 @@
       <c r="G32" s="7"/>
       <c r="H32" s="4" t="s">
         <v>71</v>
+      </c>
+      <c r="I32" s="13">
+        <v>45699</v>
       </c>
     </row>
   </sheetData>
@@ -2213,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2228,9 +2322,10 @@
     <col min="5" max="5" width="17.296875" customWidth="1"/>
     <col min="6" max="6" width="12.19921875" customWidth="1"/>
     <col min="7" max="7" width="19.296875" customWidth="1"/>
+    <col min="9" max="9" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
@@ -2253,7 +2348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -2273,8 +2368,11 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -2294,8 +2392,11 @@
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I3" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -2315,8 +2416,11 @@
       <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I4" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2336,8 +2440,11 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I5" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -2357,8 +2464,11 @@
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I6" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -2378,8 +2488,11 @@
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I7" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2399,8 +2512,11 @@
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1">
+      <c r="I8" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2536,11 @@
       <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1">
+      <c r="I9" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -2441,8 +2560,11 @@
       <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I10" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -2462,8 +2584,11 @@
       <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I11" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -2483,8 +2608,11 @@
       <c r="G12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I12" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2506,8 +2634,11 @@
       <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I13" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="G14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I14" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2548,8 +2682,11 @@
       <c r="G15" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I15" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -2569,8 +2706,11 @@
       <c r="G16" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I16" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
@@ -2592,8 +2732,11 @@
       <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I17" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
@@ -2616,7 +2759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.5" customHeight="1">
+    <row r="19" spans="1:9" ht="14.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
@@ -2636,8 +2779,11 @@
       <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I19" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -2657,8 +2803,11 @@
       <c r="G20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" customHeight="1">
+      <c r="I20" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
@@ -2680,8 +2829,11 @@
       <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1">
+      <c r="I21" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -2702,6 +2854,54 @@
       </c>
       <c r="G22" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="I22" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="I23" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="I24" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="I25" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="I26" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="I28" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="I29" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="I30" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="I31" s="13">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="I32" s="13">
+        <v>45699</v>
       </c>
     </row>
   </sheetData>
